--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503374.7278251702</v>
+        <v>504158.8737631988</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T2" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>36.6156848048708</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>9.336946277399546</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.27246438398591</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>85.80043703055078</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>105.3690580549763</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V9" t="n">
-        <v>14.69006202085835</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,16 +1384,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
-        <v>159.0801288120801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1455,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>86.96284499484402</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
@@ -1625,7 +1627,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1689,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>54.97933811727043</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1856,55 +1858,55 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>124.9488863009592</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S17" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>70.08871309685749</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1935,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>51.2165875187075</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,19 +2213,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>11.92474456210268</v>
+        <v>63.9067613594508</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,61 +2326,61 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>147.2486024294406</v>
+        <v>63.14223173826442</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2555,64 +2557,64 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2637,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.17777261684322</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>4.886970932436981</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2752,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2837,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,19 +2879,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>101.4419566141383</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.44328121791874</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2928,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>110.5627721675628</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,52 +3280,52 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T35" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3345,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,13 +3395,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>79.63968830494305</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -3585,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3597,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3648,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>142.7583554831031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3700,16 +3702,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
@@ -3758,7 +3760,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3819,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>138.9350621022359</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3876,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>134.5587245416331</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,19 +3988,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="Y44" t="n">
-        <v>159.0801288120801</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4059,10 +4061,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4110,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>41.00637780135926</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H2" t="n">
         <v>16.44142755506243</v>
@@ -4331,10 +4333,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>647.6183484719946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>498.6839388107434</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>339.4464838052879</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>192.9119258321728</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>54.18110041478835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V3" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W3" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X3" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4574,7 +4576,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350.8860444944306</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C6" t="n">
-        <v>176.4330152133036</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="D6" t="n">
-        <v>176.4330152133036</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4650,19 +4652,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M6" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M6" t="n">
-        <v>548.724319600695</v>
-      </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4784,19 +4786,19 @@
         <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4805,19 +4807,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4838,16 +4840,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>122.874819529786</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>122.874819529786</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>122.874819529786</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>122.874819529786</v>
       </c>
       <c r="H9" t="n">
         <v>16.44142755506243</v>
@@ -4884,22 +4886,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4908,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4984,28 +4986,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5020,34 @@
         <v>811.9797623848946</v>
       </c>
       <c r="C11" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D11" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E11" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="F11" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="G11" t="n">
-        <v>443.6989813239244</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>455.2401404867769</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>308.7055825136619</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5154,16 +5156,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5264,13 +5266,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5291,7 +5293,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.9018483060073</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C15" t="n">
-        <v>720.9018483060073</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5358,49 +5360,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>720.9018483060073</v>
+        <v>639.976906990516</v>
       </c>
       <c r="U15" t="n">
-        <v>720.9018483060073</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="V15" t="n">
-        <v>720.9018483060073</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W15" t="n">
-        <v>720.9018483060073</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X15" t="n">
-        <v>720.9018483060073</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y15" t="n">
-        <v>720.9018483060073</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>361.6807332628614</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C18" t="n">
-        <v>361.6807332628614</v>
+        <v>311.0032413536665</v>
       </c>
       <c r="D18" t="n">
-        <v>361.6807332628614</v>
+        <v>162.0688316924152</v>
       </c>
       <c r="E18" t="n">
-        <v>361.6807332628614</v>
+        <v>162.0688316924152</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>162.0688316924152</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>432.4774131586771</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>432.4774131586771</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X18" t="n">
-        <v>432.4774131586771</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y18" t="n">
-        <v>432.4774131586771</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="19">
@@ -5713,7 +5715,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5777,16 +5779,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
         <v>262.7299197543128</v>
@@ -5795,7 +5797,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>133.4044113554191</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="C21" t="n">
-        <v>133.4044113554191</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D21" t="n">
-        <v>133.4044113554191</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E21" t="n">
-        <v>133.4044113554191</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>133.4044113554191</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>576.4080197926946</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="V21" t="n">
-        <v>341.255911560952</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="W21" t="n">
-        <v>341.255911560952</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="X21" t="n">
-        <v>133.4044113554191</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="Y21" t="n">
-        <v>133.4044113554191</v>
+        <v>726.0875267598396</v>
       </c>
     </row>
     <row r="22">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>478.9995557818393</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6078,10 +6080,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>714.1516640135819</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U24" t="n">
-        <v>714.1516640135819</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V24" t="n">
-        <v>478.9995557818393</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W24" t="n">
-        <v>478.9995557818393</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X24" t="n">
-        <v>478.9995557818393</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>478.9995557818393</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6163,34 +6165,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>281.5846883638847</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C27" t="n">
-        <v>281.5846883638847</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D27" t="n">
-        <v>132.6502787026334</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>940.6452639784713</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>940.6452639784713</v>
+        <v>857.951291788333</v>
       </c>
       <c r="T27" t="n">
-        <v>940.6452639784713</v>
+        <v>857.951291788333</v>
       </c>
       <c r="U27" t="n">
-        <v>940.6452639784713</v>
+        <v>629.7276735247221</v>
       </c>
       <c r="V27" t="n">
-        <v>940.6452639784713</v>
+        <v>629.7276735247221</v>
       </c>
       <c r="W27" t="n">
-        <v>697.1964873343713</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="X27" t="n">
-        <v>489.3449871288386</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y27" t="n">
-        <v>281.5846883638847</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="28">
@@ -6400,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>419.8840176262463</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C30" t="n">
-        <v>245.4309883451193</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D30" t="n">
-        <v>96.49657868386802</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E30" t="n">
-        <v>96.49657868386802</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F30" t="n">
-        <v>96.49657868386802</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="G30" t="n">
-        <v>96.49657868386802</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H30" t="n">
-        <v>96.49657868386802</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,10 +6545,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
         <v>234.810827406191</v>
@@ -6576,16 +6578,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>419.8840176262463</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y30" t="n">
-        <v>419.8840176262463</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>517.4848137278872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>517.4848137278872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.38115216564972</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>130.9607109562357</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>130.9607109562357</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>130.9607109562357</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6788,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.38115216564972</v>
+        <v>290.1981659616912</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>580.2569018213353</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="C36" t="n">
-        <v>405.8038725402083</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="D36" t="n">
-        <v>256.869462878957</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="E36" t="n">
-        <v>256.869462878957</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>782.4434964625693</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>580.2569018213353</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>580.2569018213353</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>580.2569018213353</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W36" t="n">
-        <v>580.2569018213353</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X36" t="n">
-        <v>580.2569018213353</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y36" t="n">
-        <v>580.2569018213353</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="37">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y38" t="n">
-        <v>569.2254314512334</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>133.4044113554191</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>133.4044113554191</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D39" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>133.4044113554191</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7348,13 +7350,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
         <v>19.28114311021272</v>
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="F41" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="G41" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="H41" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7412,10 +7414,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7430,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>305.7142837842288</v>
+        <v>478.5596919148252</v>
       </c>
       <c r="C42" t="n">
-        <v>305.7142837842288</v>
+        <v>304.1066626336982</v>
       </c>
       <c r="D42" t="n">
-        <v>156.7798741229775</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7491,49 +7493,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>720.9018483060073</v>
+        <v>686.1534741757145</v>
       </c>
       <c r="W42" t="n">
-        <v>513.308066045118</v>
+        <v>478.5596919148252</v>
       </c>
       <c r="X42" t="n">
-        <v>513.308066045118</v>
+        <v>478.5596919148252</v>
       </c>
       <c r="Y42" t="n">
-        <v>305.7142837842288</v>
+        <v>478.5596919148252</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7658,10 +7660,10 @@
         <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7688,10 +7690,10 @@
         <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>612.4354570953169</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C45" t="n">
-        <v>437.9824278141899</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D45" t="n">
-        <v>289.0480181529386</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7731,16 +7733,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7758,19 +7760,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>780.650794115385</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>780.650794115385</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>780.650794115385</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y45" t="n">
-        <v>780.650794115385</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="46">
@@ -7846,7 +7848,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7979,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>269.7148239424616</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8465,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>290.282096632709</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8769,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8939,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
@@ -9015,16 +9017,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>164.1205091169155</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,13 +9728,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10434,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,10 +10679,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,13 +11308,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,10 +11390,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22550,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,10 +22561,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22592,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>191.9448501240437</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>75.61975943162567</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22674,22 +22676,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>190.8277824174221</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22708,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
@@ -22844,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.26071926588143</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>86.90806195776496</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22923,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23039,7 +23041,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23078,13 +23080,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23115,7 +23117,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>6.866386181520127</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23148,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>218.1105251285669</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23203,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,16 +23272,16 @@
         <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>256.222608703055</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23343,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>50.38067216836662</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23504,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>225.8559283604741</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
@@ -23513,7 +23515,7 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23577,22 +23579,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>92.46572744736832</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>19.89120263984205</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>290.3538512141759</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>96.44447055300985</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23823,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>86.12692964450314</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23978,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24017,25 +24019,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>49.05096647893927</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,16 +24053,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>214.0166375188721</v>
+        <v>162.034620721524</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,10 +24296,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>52.91612626538102</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24443,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24494,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24525,10 +24527,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24537,7 +24539,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>76.9800615357999</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>166.7962001714008</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24640,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24725,16 +24727,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24765,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>35.90156054907234</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>12.95335163349634</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24816,13 +24818,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>142.9094900234331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25011,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>1.672672068933679</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25047,19 +25049,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25166,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1096813589555</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25233,16 +25235,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25251,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>57.78848181075076</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>92.04348279889477</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,7 +25298,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -25473,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25485,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25524,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>62.92434029420124</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25588,16 +25590,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25637,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
@@ -25646,7 +25648,7 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,7 +25687,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>156.7228403034424</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25707,19 +25709,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>18.71001835316503</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25764,7 +25766,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>98.24186260779217</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>198.7016825117765</v>
       </c>
       <c r="Y44" t="n">
-        <v>227.1578098439735</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25947,10 +25949,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>110.3488012740662</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25959,7 +25961,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25998,10 +26000,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>191.794209348066</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457701.2179894867</v>
+        <v>457701.2179894868</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457701.2179894869</v>
+        <v>457701.2179894867</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457701.2179894869</v>
+        <v>457701.2179894868</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457701.2179894869</v>
+        <v>457701.2179894868</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457701.2179894867</v>
+        <v>457701.2179894868</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>482104.1301211513</v>
+        <v>482104.1301211515</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>482104.1301211516</v>
+        <v>482104.1301211515</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482104.1301211515</v>
+        <v>482104.1301211513</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482104.1301211515</v>
+        <v>482104.1301211516</v>
       </c>
     </row>
     <row r="15">
@@ -26424,22 +26426,22 @@
         <v>31909.3965941043</v>
       </c>
       <c r="E4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
       <c r="F4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
       <c r="G4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
         <v>33649.84678425771</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20700.1246496963</v>
+        <v>-20700.12464969632</v>
       </c>
       <c r="C6" t="n">
-        <v>48173.63193199354</v>
+        <v>48173.63193199352</v>
       </c>
       <c r="D6" t="n">
-        <v>48173.63193199355</v>
+        <v>48173.63193199351</v>
       </c>
       <c r="E6" t="n">
         <v>81801.23193199356</v>
@@ -26543,22 +26545,22 @@
         <v>84625.02247704656</v>
       </c>
       <c r="J6" t="n">
-        <v>30852.51158683714</v>
+        <v>30852.51158683706</v>
       </c>
       <c r="K6" t="n">
         <v>84625.0224770465</v>
       </c>
       <c r="L6" t="n">
-        <v>84625.02247704656</v>
+        <v>84625.02247704653</v>
       </c>
       <c r="M6" t="n">
         <v>84625.02247704653</v>
       </c>
       <c r="N6" t="n">
-        <v>84625.0224770465</v>
+        <v>84625.02247704653</v>
       </c>
       <c r="O6" t="n">
-        <v>81801.2319319935</v>
+        <v>81801.23193199352</v>
       </c>
       <c r="P6" t="n">
         <v>81801.23193199355</v>
@@ -34699,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N5" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35185,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>148.1480627106907</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35659,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
@@ -35735,16 +35737,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>21.52426467247106</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O27" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -37154,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,10 +37399,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
       <c r="N42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,13 +38028,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,10 +38110,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>504158.8737631988</v>
+        <v>399926.3754997556</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5432898.564695588</v>
+        <v>5432898.564695589</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>9.336946277399546</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>205.5178444382804</v>
@@ -803,10 +803,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>80.11569190233641</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,70 +895,70 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="C5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>85.80043703055078</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,43 +1153,43 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
         <v>181.0201173812374</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>105.3690580549763</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>108.0109996132921</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
-        <v>171.0294181666926</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
+        <v>14.69006202085835</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X12" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>180.2735260549796</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>205.5178444382804</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>202.2946864288972</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>51.2165875187075</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1988,7 +1988,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>202.2946864288972</v>
       </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2165,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>63.9067613594508</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>63.14223173826442</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,64 +2475,64 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2560,10 +2560,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>4.886970932436981</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>59.22116435324905</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D29" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,28 +2873,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>101.4419566141383</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>88.55090549590537</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2946864288972</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>86.63891162917011</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>110.5627721675628</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3328,10 +3328,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>149.1643888798259</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,58 +3429,58 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>68.29221919223491</v>
       </c>
       <c r="D39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>205.5178444382804</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>134.5587245416331</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
         <v>16.44142755506243</v>
@@ -4333,19 +4333,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4372,10 +4372,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>626.8294255367553</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
         <v>752.6768192397923</v>
@@ -4433,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>639.2227743377304</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>639.2227743377304</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W3" t="n">
-        <v>224.0352098159517</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4506,10 +4506,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
         <v>16.44142755506243</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4579,10 +4579,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4606,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.2622584721643</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C6" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4673,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4749,28 +4749,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4786,19 +4786,19 @@
         <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4813,13 +4813,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4834,19 +4834,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V8" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y8" t="n">
         <v>224.0352098159517</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>446.2622584721643</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="C9" t="n">
-        <v>271.8092291910373</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="D9" t="n">
-        <v>122.874819529786</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="E9" t="n">
-        <v>122.874819529786</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F9" t="n">
-        <v>122.874819529786</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G9" t="n">
-        <v>122.874819529786</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4889,10 +4889,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
         <v>435.9652341458732</v>
@@ -4910,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>712.9693579417154</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>712.9693579417154</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>712.9693579417154</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.4775954922324</v>
+        <v>505.3755756808262</v>
       </c>
     </row>
     <row r="10">
@@ -4980,31 +4980,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
         <v>16.44142755506243</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C11" t="n">
-        <v>604.3859801240053</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D11" t="n">
-        <v>604.3859801240053</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E11" t="n">
-        <v>604.3859801240053</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F11" t="n">
-        <v>396.792197863116</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G11" t="n">
-        <v>189.1984156022267</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5065,28 +5065,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X11" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y11" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="12">
@@ -5129,16 +5129,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5147,22 +5147,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W12" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
         <v>16.44142755506243</v>
@@ -5217,19 +5217,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
         <v>16.44142755506243</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5281,49 +5281,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,46 +5363,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N15" t="n">
-        <v>626.8294255367553</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>639.976906990516</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>432.3831247296267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V15" t="n">
-        <v>224.7893424687375</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5454,19 +5454,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
         <v>16.44142755506243</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V17" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W17" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X17" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y17" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V17" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W17" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X17" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>485.4562706347935</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C18" t="n">
-        <v>311.0032413536665</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D18" t="n">
-        <v>162.0688316924152</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E18" t="n">
-        <v>162.0688316924152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>162.0688316924152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,19 +5600,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>485.4562706347935</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>485.4562706347935</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="19">
@@ -5706,13 +5706,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C20" t="n">
+      <c r="G20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V20" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V20" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>726.0875267598396</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C21" t="n">
-        <v>726.0875267598396</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>726.0875267598396</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>726.0875267598396</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>726.0875267598396</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>726.0875267598396</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>726.0875267598396</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="22">
@@ -5940,7 +5940,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6010,28 +6010,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
         <v>262.7299197543128</v>
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>726.8597789024521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>498.6361606388412</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>263.4840524070985</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6180,19 +6180,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>495.259035872464</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>178.5185981156682</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C27" t="n">
-        <v>178.5185981156682</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D27" t="n">
         <v>178.5185981156682</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>857.951291788333</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>857.951291788333</v>
+        <v>730.8204530287303</v>
       </c>
       <c r="U27" t="n">
-        <v>629.7276735247221</v>
+        <v>730.8204530287303</v>
       </c>
       <c r="V27" t="n">
-        <v>629.7276735247221</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="W27" t="n">
-        <v>386.2788968806221</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="X27" t="n">
-        <v>386.2788968806221</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="Y27" t="n">
-        <v>178.5185981156682</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="28">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.32787816303323</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C29" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>569.2254314512334</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W29" t="n">
-        <v>569.2254314512334</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X29" t="n">
-        <v>325.7766548071333</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.32787816303323</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>694.6722890434539</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="C30" t="n">
-        <v>520.2192597623269</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="D30" t="n">
-        <v>371.2848501010757</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="E30" t="n">
-        <v>212.0473950956202</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="F30" t="n">
-        <v>212.0473950956202</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y30" t="n">
-        <v>862.8876260635219</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="31">
@@ -6648,10 +6648,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>290.1981659616912</v>
+        <v>641.3909951282167</v>
       </c>
       <c r="C33" t="n">
-        <v>290.1981659616912</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="D33" t="n">
-        <v>290.1981659616912</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E33" t="n">
-        <v>130.9607109562357</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F33" t="n">
-        <v>130.9607109562357</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G33" t="n">
-        <v>130.9607109562357</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>533.6469426057913</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>290.1981659616912</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X33" t="n">
-        <v>290.1981659616912</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y33" t="n">
-        <v>290.1981659616912</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>51.20856840381305</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C36" t="n">
-        <v>51.20856840381305</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D36" t="n">
-        <v>51.20856840381305</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E36" t="n">
-        <v>51.20856840381305</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>51.20856840381305</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>51.20856840381305</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>51.20856840381305</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>813.3860556320242</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>813.3860556320242</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>813.3860556320242</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>578.2339474002815</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="X36" t="n">
-        <v>51.20856840381305</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="Y36" t="n">
-        <v>51.20856840381305</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C38" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.38115216564972</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="C39" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7295,10 +7295,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
         <v>19.28114311021272</v>
@@ -7353,31 +7353,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H41" t="n">
         <v>224.0352098159517</v>
@@ -7417,16 +7417,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7438,25 +7438,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>478.5596919148252</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>304.1066626336982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7493,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>752.1869855945927</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7526,16 +7526,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>686.1534741757145</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>478.5596919148252</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X42" t="n">
-        <v>478.5596919148252</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>478.5596919148252</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7596,7 +7596,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
         <v>16.44142755506243</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7657,7 +7657,7 @@
         <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7675,25 +7675,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>238.668476211275</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C45" t="n">
-        <v>64.21544693014803</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="D45" t="n">
-        <v>64.21544693014803</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7730,13 +7730,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
         <v>435.9652341458732</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X45" t="n">
-        <v>614.4775954922324</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.8838132313431</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="46">
@@ -7839,16 +7839,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>415.4335334139435</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
@@ -8072,7 +8072,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>269.7148239424616</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8227,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N6" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8777,19 +8777,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8941,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,7 +9011,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
@@ -9020,13 +9020,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,13 +9248,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10907,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10916,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11074,10 +11074,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11156,7 +11156,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>173.6629242394455</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>190.8277824174221</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>27.28274271114486</v>
@@ -22691,10 +22691,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>125.567003874968</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822431</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>86.90806195776496</v>
+        <v>163.3715527109161</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,10 +22922,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23041,7 +23041,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23074,10 +23074,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>146.7321410888975</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.866386181520127</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>63.67217149054569</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23159,7 +23159,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>168.4453839490745</v>
+        <v>318.3145018902242</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>218.1105251285669</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>24.75286782224003</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23512,10 +23512,10 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23554,7 +23554,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>19.89120263984205</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>105.8913097744792</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>46.1771387226392</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>20.80116313523413</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>86.12692964450314</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24019,13 +24019,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24053,19 +24053,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24098,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>162.034620721524</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24180,10 +24180,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24265,16 +24265,16 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>137.0224969565572</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24448,10 +24448,10 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>166.7962001714008</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>140.9435643415725</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D29" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24727,28 +24727,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,28 +24761,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>35.90156054907234</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>23.68453874059109</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24818,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24888,13 +24888,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,16 +24970,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>20.80116313523413</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>79.89427202069723</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,16 +25010,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.672672068933679</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,16 +25049,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25216,10 +25216,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>296.8154002296654</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>57.78848181075076</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>22.51878222401191</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>104.4162797960808</v>
       </c>
       <c r="D39" t="n">
-        <v>117.6460565997561</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25593,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25642,10 +25642,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>4.958045132125505</v>
@@ -25678,16 +25678,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>80.31623474114386</v>
       </c>
       <c r="V41" t="n">
-        <v>156.7228403034424</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25709,10 +25709,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25721,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25766,16 +25766,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>98.24186260779217</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25836,10 +25836,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055691</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25915,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>198.7016825117765</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>110.3488012740662</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>122.6534551423523</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457701.2179894867</v>
+        <v>457701.2179894869</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457701.2179894868</v>
+        <v>457701.2179894869</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>482104.1301211515</v>
+        <v>482104.1301211513</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>482104.1301211515</v>
+        <v>482104.1301211513</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482104.1301211513</v>
+        <v>482104.1301211515</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457701.2179894867</v>
+        <v>457701.2179894868</v>
       </c>
     </row>
   </sheetData>
@@ -26355,7 +26355,7 @@
         <v>126206.1134679453</v>
       </c>
       <c r="P2" t="n">
-        <v>126206.1134679453</v>
+        <v>126206.1134679452</v>
       </c>
     </row>
     <row r="3">
@@ -26426,10 +26426,10 @@
         <v>31909.3965941043</v>
       </c>
       <c r="E4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="F4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="G4" t="n">
         <v>33649.84678425771</v>
@@ -26456,7 +26456,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
       <c r="P4" t="n">
         <v>31909.3965941043</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20700.12464969632</v>
+        <v>-33338.2868045568</v>
       </c>
       <c r="C6" t="n">
-        <v>48173.63193199352</v>
+        <v>35535.46977713305</v>
       </c>
       <c r="D6" t="n">
-        <v>48173.63193199351</v>
+        <v>35535.46977713303</v>
       </c>
       <c r="E6" t="n">
-        <v>81801.23193199356</v>
+        <v>69163.069777133</v>
       </c>
       <c r="F6" t="n">
-        <v>81801.23193199356</v>
+        <v>69163.06977713306</v>
       </c>
       <c r="G6" t="n">
-        <v>74895.97950287943</v>
+        <v>62677.96888283897</v>
       </c>
       <c r="H6" t="n">
-        <v>84625.02247704656</v>
+        <v>72407.01185700609</v>
       </c>
       <c r="I6" t="n">
-        <v>84625.02247704656</v>
+        <v>72407.01185700606</v>
       </c>
       <c r="J6" t="n">
-        <v>30852.51158683706</v>
+        <v>18634.50096679663</v>
       </c>
       <c r="K6" t="n">
-        <v>84625.0224770465</v>
+        <v>72407.01185700606</v>
       </c>
       <c r="L6" t="n">
-        <v>84625.02247704653</v>
+        <v>72407.01185700606</v>
       </c>
       <c r="M6" t="n">
-        <v>84625.02247704653</v>
+        <v>72407.01185700606</v>
       </c>
       <c r="N6" t="n">
-        <v>84625.02247704653</v>
+        <v>72407.01185700609</v>
       </c>
       <c r="O6" t="n">
-        <v>81801.23193199352</v>
+        <v>69163.06977713303</v>
       </c>
       <c r="P6" t="n">
-        <v>81801.23193199355</v>
+        <v>69163.06977713299</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>185.0873001866707</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
@@ -34792,7 +34792,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>127.1185794980172</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N6" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35497,19 +35497,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35661,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
@@ -35740,13 +35740,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37636,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37794,10 +37794,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37876,7 +37876,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>185.0873001866707</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
